--- a/Documenti/XTAL_Design+Validation.xlsx
+++ b/Documenti/XTAL_Design+Validation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Lavori\ART-ist10\ART-ist10_SouthBridge_board\Validation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samuele.lorenzoni\Desktop\Script\Crystal-Calculator\Documenti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1980C9AF-EEFE-43A3-86A5-0B5C0F3D9672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE91758-F0CA-4455-A4C2-948AC6913236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1605" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="88">
   <si>
     <t>Current status, Rext = 0Ohm, CL1=CL2= 10pF</t>
   </si>
@@ -326,9 +326,6 @@
   </si>
   <si>
     <t>First Release</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>Note the calc tool is based on AN2867 from ST 
@@ -885,35 +882,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -953,15 +926,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -971,9 +935,6 @@
     <xf numFmtId="48" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -983,15 +944,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1019,13 +971,7 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1055,9 +1001,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1102,14 +1045,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1118,89 +1055,147 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1287,8 +1282,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10429876" y="5114589"/>
-          <a:ext cx="2946025" cy="1504725"/>
+          <a:off x="10421304" y="5124114"/>
+          <a:ext cx="2938405" cy="1489961"/>
           <a:chOff x="34211172" y="6817068"/>
           <a:chExt cx="4145094" cy="1683235"/>
         </a:xfrm>
@@ -1365,7 +1360,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>378317</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>160670</xdr:rowOff>
+      <xdr:rowOff>172100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1409,7 +1404,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>187659</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>333520</xdr:rowOff>
+      <xdr:rowOff>322090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1730,227 +1725,234 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
     </row>
     <row r="4" spans="2:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="B4" s="112" t="s">
+      <c r="B4" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="112"/>
-      <c r="D4" s="113" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="80"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="60"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
     </row>
     <row r="6" spans="2:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
     </row>
     <row r="7" spans="2:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="80"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="60"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="96" t="s">
+      <c r="B8" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="96" t="s">
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="G8" s="97"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="80"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="60"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="96" t="s">
+      <c r="B9" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="97"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="96" t="s">
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="G9" s="97"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="80"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="60"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="92"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="92" t="s">
+      <c r="B11" s="82"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="93"/>
-      <c r="F11" s="86" t="s">
+      <c r="E11" s="83"/>
+      <c r="F11" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="86"/>
-      <c r="H11" s="87" t="s">
+      <c r="G11" s="87"/>
+      <c r="H11" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="I11" s="80"/>
+      <c r="I11" s="60"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="90" t="s">
+      <c r="B12" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="91"/>
-      <c r="D12" s="94" t="s">
+      <c r="C12" s="81"/>
+      <c r="D12" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="95"/>
-      <c r="F12" s="88" t="s">
+      <c r="E12" s="85"/>
+      <c r="F12" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="G12" s="88"/>
-      <c r="H12" s="89">
+      <c r="G12" s="86"/>
+      <c r="H12" s="63">
         <v>45203</v>
       </c>
-      <c r="I12" s="80"/>
+      <c r="I12" s="60"/>
     </row>
     <row r="14" spans="2:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="B14" s="84" t="s">
+      <c r="B14" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="101"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="107" t="s">
+      <c r="B15" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="108" t="s">
+      <c r="C15" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="108"/>
-      <c r="E15" s="110" t="s">
+      <c r="D15" s="89"/>
+      <c r="E15" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="109" t="s">
+      <c r="F15" s="91"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="I15" s="102"/>
-      <c r="J15" s="102"/>
-      <c r="K15" s="103"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
     </row>
     <row r="16" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="99" t="s">
+      <c r="B16" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="100" t="s">
+      <c r="C16" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="100"/>
-      <c r="E16" s="111" t="s">
+      <c r="D16" s="90"/>
+      <c r="E16" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="111"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="89">
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="63">
         <v>45203</v>
       </c>
-      <c r="I16" s="105"/>
-      <c r="J16" s="105"/>
-      <c r="K16" s="103"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="104"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="105"/>
-      <c r="I17" s="105"/>
-      <c r="J17" s="105"/>
-      <c r="K17" s="104"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="67"/>
     </row>
     <row r="18" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="76" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
+      <c r="B18" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="88"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
     <mergeCell ref="B18:H18"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="E16:G16"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="F9:H9"/>
@@ -1961,15 +1963,6 @@
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="B2:C2"/>
@@ -1987,8 +1980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G154"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2001,456 +1994,456 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="96"/>
     </row>
     <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="102"/>
     </row>
     <row r="3" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="9"/>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="98"/>
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="3">
         <v>7.0000000000000001E-12</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="9"/>
-      <c r="C4" s="13" t="s">
+      <c r="B4" s="98"/>
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="14">
-        <v>3.6E-12</v>
-      </c>
-      <c r="E4" s="15" t="s">
+      <c r="D4" s="6">
+        <v>1.5000000000000001E-12</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="9"/>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="98"/>
+      <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="14">
-        <v>4.1999999999999999E-12</v>
-      </c>
-      <c r="E5" s="15" t="s">
+      <c r="D5" s="6">
+        <v>3.9999999999999999E-12</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="9"/>
-      <c r="C6" s="16" t="s">
+      <c r="B6" s="98"/>
+      <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="17">
-        <v>1.6E-11</v>
-      </c>
-      <c r="E6" s="15" t="s">
+      <c r="D6" s="9">
+        <v>2.7E-11</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="9"/>
-      <c r="C7" s="16" t="s">
+      <c r="B7" s="98"/>
+      <c r="C7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="10">
+        <v>40</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="98"/>
+      <c r="C8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="11">
+        <v>25000000</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="98"/>
+      <c r="C9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="98"/>
+      <c r="C10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="13">
+        <f>D7/((1+(D3/D6))^2)</f>
+        <v>25.224913494809687</v>
+      </c>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="98"/>
+      <c r="C11" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="104"/>
+      <c r="E11" s="105"/>
+    </row>
+    <row r="12" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="98"/>
+      <c r="C12" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="16">
+        <f>(D6-D4-D5)*2</f>
+        <v>4.3E-11</v>
+      </c>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="98"/>
+      <c r="C13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="17">
+        <v>2.7E-11</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="99"/>
+      <c r="C14" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="19">
+        <f>(D13+D4+D5)/2</f>
+        <v>1.6250000000000002E-11</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="97" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="106" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="107"/>
+      <c r="E15" s="108"/>
+    </row>
+    <row r="16" spans="2:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="98"/>
+      <c r="C16" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="22">
+        <v>1.1319999999999999</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="98"/>
+      <c r="C17" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="9"/>
-      <c r="C8" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="19">
-        <v>30000000</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="9"/>
-      <c r="C9" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="17">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="9"/>
-      <c r="C10" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="21">
-        <f>D7/((1+(D3/D6))^2)</f>
-        <v>14.517958412098299</v>
-      </c>
-      <c r="E10" s="22"/>
-    </row>
-    <row r="11" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="9"/>
-      <c r="C11" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-    </row>
-    <row r="12" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="9"/>
-      <c r="C12" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="27">
-        <f>(D6-D4-D5)*2</f>
-        <v>1.6400000000000003E-11</v>
-      </c>
-      <c r="E12" s="12"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="9"/>
-      <c r="C13" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="28">
-        <v>2.2000000000000002E-11</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="29"/>
-      <c r="C14" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="31">
-        <f>(D13+D4+D5)/2</f>
-        <v>1.4900000000000002E-11</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="35"/>
-    </row>
-    <row r="16" spans="2:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="9"/>
-      <c r="C16" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="38" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="9"/>
-      <c r="C17" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="41" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B18" s="9"/>
-      <c r="C18" s="42" t="s">
+      <c r="B18" s="98"/>
+      <c r="C18" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="43">
-        <v>9.9999999999999998E-13</v>
-      </c>
-      <c r="E18" s="44"/>
+      <c r="D18" s="28">
+        <v>9E-13</v>
+      </c>
+      <c r="E18" s="29"/>
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="9"/>
-      <c r="C19" s="42" t="s">
+      <c r="B19" s="98"/>
+      <c r="C19" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="43">
+      <c r="D19" s="28">
         <v>1.1000000000000001E-11</v>
       </c>
-      <c r="E19" s="45" t="s">
+      <c r="E19" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="46" t="s">
+      <c r="G19" s="30" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="9"/>
-      <c r="C20" s="42" t="s">
+      <c r="B20" s="98"/>
+      <c r="C20" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="43">
+      <c r="D20" s="28">
         <v>10000000</v>
       </c>
-      <c r="E20" s="47"/>
+      <c r="E20" s="110"/>
     </row>
     <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B21" s="9"/>
-      <c r="C21" s="42" t="s">
+      <c r="B21" s="98"/>
+      <c r="C21" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="43">
+      <c r="D21" s="28">
         <v>1.5000000000000001E-12</v>
       </c>
-      <c r="E21" s="44"/>
+      <c r="E21" s="29"/>
     </row>
     <row r="22" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B22" s="9"/>
-      <c r="C22" s="42" t="s">
+      <c r="B22" s="98"/>
+      <c r="C22" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="48">
+      <c r="D22" s="31">
         <f>IF(D17="Active (Lo-Cap)",1,(((1/((1/D20)+2*PI()*D8*D19))/(((1/((1/D20)+2*PI()*D8*D19))+(1/(2*PI()*D8*D21)))))))</f>
         <v>1</v>
       </c>
-      <c r="E22" s="49" t="s">
+      <c r="E22" s="32" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B23" s="9"/>
-      <c r="C23" s="50" t="s">
+      <c r="B23" s="98"/>
+      <c r="C23" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="51" t="e">
+      <c r="D23" s="34">
         <f>(D16/(2*SQRT(2)))/D22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E23" s="52" t="s">
+        <v>0.40022243815158581</v>
+      </c>
+      <c r="E23" s="35" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="9"/>
-      <c r="C24" s="50" t="s">
+      <c r="B24" s="98"/>
+      <c r="C24" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="53">
+      <c r="D24" s="36">
         <f>IF(D17="Active (Lo-Cap)",D13+((D4+D5)/2)+D18,D13+((D4+D5)/2)+((D19*D21)/(D19+D21)))</f>
-        <v>2.6900000000000002E-11</v>
-      </c>
-      <c r="E24" s="15" t="s">
+        <v>3.0649999999999999E-11</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="9"/>
-      <c r="C25" s="50" t="s">
+      <c r="B25" s="98"/>
+      <c r="C25" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="53" t="e">
+      <c r="D25" s="36">
         <f>2*PI()*D8*D23*D24</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E25" s="15" t="s">
+        <v>1.9268672230719373E-3</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G25" s="46" t="s">
+      <c r="G25" s="30" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="9"/>
-      <c r="C26" s="50" t="s">
+      <c r="B26" s="98"/>
+      <c r="C26" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="54">
+      <c r="D26" s="37">
         <f>IF(D14&lt;D6,(D10*(1+(D3/D6))^2),(D10*(1+(D3/D14))^2))</f>
-        <v>30</v>
-      </c>
-      <c r="E26" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="38" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="9"/>
-      <c r="C27" s="50" t="s">
+      <c r="B27" s="98"/>
+      <c r="C27" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="53" t="e">
+      <c r="D27" s="36">
         <f>(D25^2)*D26</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E27" s="15" t="s">
+        <v>1.4851269181395836E-4</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="9"/>
-      <c r="C28" s="30" t="s">
+      <c r="B28" s="98"/>
+      <c r="C28" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="56" t="e">
+      <c r="D28" s="39">
         <f>D27/D9</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E28" s="32" t="s">
+        <v>1.4851269181395836</v>
+      </c>
+      <c r="E28" s="20" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="57"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="58" t="s">
+      <c r="A29" s="40"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="111" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="34"/>
-      <c r="E29" s="35"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="108"/>
     </row>
     <row r="30" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="9"/>
-      <c r="C30" s="59" t="s">
+      <c r="B30" s="98"/>
+      <c r="C30" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="60">
+      <c r="D30" s="42">
         <f>1/(2*PI()*D8*D13)</f>
-        <v>241.1438531695384</v>
-      </c>
-      <c r="E30" s="61" t="s">
+        <v>235.78510087688201</v>
+      </c>
+      <c r="E30" s="43" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="57"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="62" t="s">
+      <c r="A31" s="40"/>
+      <c r="B31" s="98"/>
+      <c r="C31" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="63">
+      <c r="D31" s="45">
         <v>0</v>
       </c>
-      <c r="E31" s="64" t="s">
+      <c r="E31" s="46" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="9"/>
-      <c r="C32" s="33" t="s">
+      <c r="B32" s="98"/>
+      <c r="C32" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="35"/>
+      <c r="D32" s="107"/>
+      <c r="E32" s="108"/>
     </row>
     <row r="33" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="9"/>
-      <c r="C33" s="65" t="s">
+      <c r="B33" s="98"/>
+      <c r="C33" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="66">
+      <c r="D33" s="48">
         <v>9.6999999999999993</v>
       </c>
-      <c r="E33" s="67" t="s">
+      <c r="E33" s="49" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="9"/>
-      <c r="C34" s="50" t="s">
+      <c r="B34" s="98"/>
+      <c r="C34" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="53">
+      <c r="D34" s="36">
         <f>(4*(D26+D31)*((2*PI()*D8)^2)*(D3+D14)^2)*1000</f>
-        <v>2.0448983376603946</v>
-      </c>
-      <c r="E34" s="15" t="s">
+        <v>2.1340552116255469</v>
+      </c>
+      <c r="E34" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="29"/>
-      <c r="C35" s="20" t="s">
+      <c r="B35" s="99"/>
+      <c r="C35" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="68">
+      <c r="D35" s="50">
         <f>D33/D34</f>
-        <v>4.7435120961064232</v>
-      </c>
-      <c r="E35" s="69" t="s">
+        <v>4.5453369468409122</v>
+      </c>
+      <c r="E35" s="51" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C36" s="70"/>
-      <c r="E36" s="71"/>
+      <c r="C36" s="52"/>
+      <c r="E36" s="53"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C37" s="72" t="s">
+      <c r="C37" s="54" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C38" s="73" t="s">
+      <c r="C38" s="55" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C39" s="74" t="s">
+      <c r="C39" s="56" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C40" s="75" t="s">
+      <c r="C40" s="57" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="41" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="C41" s="46"/>
+      <c r="C41" s="30"/>
     </row>
     <row r="42" spans="2:5" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="76" t="s">
+      <c r="C42" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="D42" s="76"/>
-      <c r="E42" s="76"/>
+      <c r="D42" s="88"/>
+      <c r="E42" s="88"/>
     </row>
     <row r="62" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="57"/>
-      <c r="B62" s="77"/>
+      <c r="A62" s="40"/>
+      <c r="B62" s="58"/>
     </row>
     <row r="154" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A154" s="78"/>
-      <c r="B154" s="78"/>
+      <c r="A154" s="93"/>
+      <c r="B154" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2502,7 +2495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE3E0F1-708E-4C27-9DD6-EAB6AA4324D2}">
   <dimension ref="B1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -2512,17 +2505,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="59" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="59" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="59" t="s">
         <v>69</v>
       </c>
     </row>
